--- a/docs/Experiment 1 - Usokin/Usokin Benchmarks.xlsx
+++ b/docs/Experiment 1 - Usokin/Usokin Benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,13 +94,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,17 +140,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,52 +500,55 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
@@ -561,222 +604,222 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="9">
         <v>50</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <v>0.31315531944638603</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <v>0.61908238449549802</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="10">
         <v>0.30132855276031301</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="10">
         <v>0.657556270096463</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="10">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="10">
         <v>0.57674324681174904</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="10">
         <v>0.57674324681174904</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="10">
         <v>0.110592338605479</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="10">
         <v>0.48231511254019299</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="10">
         <v>4</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="10">
         <v>0.86802740109045196</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="10">
         <v>0.86802740109045196</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="10">
         <v>9.6812647827063503E-2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="10">
         <v>0.50803858520900302</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>0.103189</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>0.14613909999999999</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>0.89504640000000002</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>0.94855310000000004</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>0.32253759999999998</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>0.32253759999999998</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>0.79298550000000001</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>0.90353700000000003</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <v>3</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="5">
         <v>0.19348009999999999</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="5">
         <v>0.36157319999999998</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="5">
         <v>0.65414130000000004</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="5">
         <v>0.83762060000000005</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>25</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>0.150229636878595</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>0.32205601379374599</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>0.79105662226379703</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="8">
         <v>0.92282958199356901</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="8">
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="8">
         <v>0.51953855155309103</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="8">
         <v>0.51953855155309103</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="8">
         <v>0.127918953883534</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="8">
         <v>0.51446945337620598</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="8">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="8">
         <v>0.56993957469282497</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="8">
         <v>0.56993957469282497</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="8">
         <v>0.30196875584078903</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="8">
         <v>0.60450160771704198</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>25</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>0.22984399190186999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="8">
         <v>0.29504326079189802</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="8">
         <v>0.85443490679661704</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="8">
         <v>0.92282958199356901</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="8">
         <v>4</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="8">
         <v>0.51306108289192298</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="8">
         <v>0.51306108289192298</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="8">
         <v>0.29565195431380797</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="8">
         <v>0.64147909967845695</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="8">
         <v>4</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="8">
         <v>0.62031988650190795</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="8">
         <v>0.62031988650190795</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="8">
         <v>0.28901239906223902</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="8">
         <v>0.63987138263665599</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>10</v>
       </c>
       <c r="C9">
@@ -826,10 +869,10 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
